--- a/data/glcm-data/第二批狗骨頭材料特性.xlsx
+++ b/data/glcm-data/第二批狗骨頭材料特性.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>trail</t>
   </si>
@@ -371,8 +371,8 @@
       <c r="F2" s="1">
         <v>411.8064</v>
       </c>
-      <c r="G2" s="1">
-        <v>388.4997</v>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -491,7 +491,7 @@
       <c r="B6" s="1">
         <v>302.7205</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="1">
